--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1028.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1028.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.199306056875041</v>
+        <v>1.257266640663147</v>
       </c>
       <c r="B1">
-        <v>3.730211146750581</v>
+        <v>1.382025122642517</v>
       </c>
       <c r="C1">
-        <v>3.144106921498028</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.341656061232811</v>
+        <v>2.077202558517456</v>
       </c>
       <c r="E1">
-        <v>1.235294687402058</v>
+        <v>0.9087323546409607</v>
       </c>
     </row>
   </sheetData>
